--- a/AAII_Financials/Quarterly/WLTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WLTW_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>WLTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,131 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2466000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2690000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1989000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2048000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2312000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2372000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1859000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1990000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2292000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2078000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1852000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1953000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2319000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1927000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1777000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +1002,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F14" s="3">
         <v>6000</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I14" s="3">
         <v>54000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>50000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>55000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>43000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>139000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>105000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>90000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>67000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>138000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>190000</v>
+      </c>
+      <c r="F15" s="3">
         <v>176000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>182000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>181000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>181000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>180000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>191000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>190000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>192000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>195000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>200000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>197000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>194000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2106000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2003000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1882000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1872000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1953000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1902000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1842000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1927000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2033000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1998000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1878000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1892000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1918000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1839000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1776000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>360000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>687000</v>
+      </c>
+      <c r="F18" s="3">
         <v>107000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>176000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>359000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>470000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>17000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>63000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>259000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>80000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-26000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>61000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>401000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>88000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,128 +1243,142 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>55000</v>
+        <v>92000</v>
       </c>
       <c r="E20" s="3">
-        <v>67000</v>
+        <v>50000</v>
       </c>
       <c r="F20" s="3">
         <v>55000</v>
       </c>
       <c r="G20" s="3">
+        <v>67000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>55000</v>
+      </c>
+      <c r="I20" s="3">
         <v>60000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>70000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>63000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>56000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>47000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>38000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>34000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>44000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>671000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>927000</v>
+      </c>
+      <c r="F21" s="3">
         <v>338000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>425000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>595000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>711000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>268000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>319000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>507000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>350000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>210000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>304000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>648000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>281000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E22" s="3">
         <v>62000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>62000</v>
+      </c>
+      <c r="G22" s="3">
         <v>56000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>54000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>53000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>51000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>52000</v>
       </c>
       <c r="J22" s="3">
         <v>51000</v>
       </c>
       <c r="K22" s="3">
+        <v>52000</v>
+      </c>
+      <c r="L22" s="3">
+        <v>51000</v>
+      </c>
+      <c r="M22" s="3">
         <v>47000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>47000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>46000</v>
       </c>
       <c r="N22" s="3">
         <v>47000</v>
@@ -1308,98 +1387,116 @@
         <v>46000</v>
       </c>
       <c r="P22" s="3">
+        <v>47000</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>46000</v>
+      </c>
+      <c r="R22" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>391000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>675000</v>
+      </c>
+      <c r="F23" s="3">
         <v>100000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>187000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>360000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>477000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>36000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>74000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>264000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>80000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-35000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>49000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>398000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>41000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-58000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>124000</v>
+      </c>
+      <c r="F24" s="3">
         <v>20000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>38000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>67000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>94000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-10000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>9000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>43000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-243000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>19000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>8000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>46000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-107000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-26000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>313000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>551000</v>
+      </c>
+      <c r="F26" s="3">
         <v>80000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>149000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>293000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>383000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>46000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>65000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>221000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>323000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-54000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>41000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>352000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>148000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>305000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>544000</v>
+      </c>
+      <c r="F27" s="3">
         <v>75000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>138000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>287000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>378000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>44000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>58000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>215000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>316000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-54000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>34000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>345000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>142000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,41 +1689,47 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-70000</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-55000</v>
+        <v>-92000</v>
       </c>
       <c r="E32" s="3">
-        <v>-67000</v>
+        <v>-50000</v>
       </c>
       <c r="F32" s="3">
         <v>-55000</v>
       </c>
       <c r="G32" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-60000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-70000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-63000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-56000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-47000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-38000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-34000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-44000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>305000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>544000</v>
+      </c>
+      <c r="F33" s="3">
         <v>75000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>138000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>287000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>378000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>44000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>58000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>215000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>246000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-54000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>34000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>345000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>142000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>305000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>544000</v>
+      </c>
+      <c r="F35" s="3">
         <v>75000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>138000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>287000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>378000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>44000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>58000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>215000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>246000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-54000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>34000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>345000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>142000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>898000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>887000</v>
+      </c>
+      <c r="F41" s="3">
         <v>867000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>812000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>992000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1033000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>931000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>911000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>954000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1030000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>912000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>852000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>901000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>870000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>767000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2234,64 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2445000</v>
+        <v>2669000</v>
       </c>
       <c r="E43" s="3">
-        <v>2650000</v>
+        <v>2702000</v>
       </c>
       <c r="F43" s="3">
+        <v>2375000</v>
+      </c>
+      <c r="G43" s="3">
+        <v>2578000</v>
+      </c>
+      <c r="H43" s="3">
         <v>2490000</v>
       </c>
-      <c r="G43" s="3">
-        <v>2542000</v>
-      </c>
-      <c r="H43" s="3">
-        <v>2402000</v>
-      </c>
       <c r="I43" s="3">
+        <v>2440000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2333000</v>
+      </c>
+      <c r="K43" s="3">
         <v>2394000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2600000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2416000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2294000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2288000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2307000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2177000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2115000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,228 +2334,264 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14088000</v>
+        <v>15983000</v>
       </c>
       <c r="E45" s="3">
-        <v>14871000</v>
+        <v>13448000</v>
       </c>
       <c r="F45" s="3">
+        <v>14158000</v>
+      </c>
+      <c r="G45" s="3">
+        <v>14943000</v>
+      </c>
+      <c r="H45" s="3">
         <v>15538000</v>
       </c>
-      <c r="G45" s="3">
-        <v>12845000</v>
-      </c>
-      <c r="H45" s="3">
-        <v>13423000</v>
-      </c>
       <c r="I45" s="3">
+        <v>12947000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>13492000</v>
+      </c>
+      <c r="K45" s="3">
         <v>14584000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>14052000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>12415000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>12485000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>13093000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>12587000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>10745000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>11851000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19550000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>17037000</v>
+      </c>
+      <c r="F46" s="3">
         <v>17400000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>18333000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>19020000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>16420000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>16756000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>17889000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>17606000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>15861000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>15691000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>16233000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>15795000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>13792000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>14733000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>238000</v>
+        <v>167000</v>
       </c>
       <c r="E47" s="3">
-        <v>97000</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
+        <v>283000</v>
+      </c>
+      <c r="F47" s="3">
+        <v>170000</v>
       </c>
       <c r="G47" s="3">
-        <v>73000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>81000</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
+        <v>38000</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
+        <v>27000</v>
       </c>
       <c r="J47" s="3">
+        <v>31000</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>100000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>294000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>292000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>227000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1880000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2014000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1922000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1897000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1903000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>942000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>944000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>924000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>926000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>985000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>937000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>895000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>863000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>839000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>811000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>14522000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>14672000</v>
+      </c>
+      <c r="F49" s="3">
         <v>14748000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>13509000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>13643000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>13783000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>13886000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>14030000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>14316000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>14401000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>14563000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>14665000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>14687000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>14781000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>15072000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1395000</v>
+        <v>1608000</v>
       </c>
       <c r="E52" s="3">
-        <v>1330000</v>
+        <v>1420000</v>
       </c>
       <c r="F52" s="3">
+        <v>1463000</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1389000</v>
+      </c>
+      <c r="H52" s="3">
         <v>1327000</v>
       </c>
-      <c r="G52" s="3">
-        <v>1167000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1374000</v>
-      </c>
       <c r="I52" s="3">
+        <v>1213000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1424000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1370000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1264000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>917000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>789000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>981000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>887000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>614000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>978000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>37727000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>35426000</v>
+      </c>
+      <c r="F54" s="3">
         <v>35703000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>35166000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>35893000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>32385000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>33041000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>34213000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>34212000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>32458000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>32272000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>32774000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>32232000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>30253000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>31801000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,75 +2878,83 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>854000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>856000</v>
+      </c>
+      <c r="F57" s="3">
         <v>882000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>793000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>688000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>691000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>679000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>670000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>135000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>117000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>121000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>697000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>319000</v>
+      </c>
+      <c r="F58" s="3">
         <v>487000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>190000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>190000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>186000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>186000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>85000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>85000</v>
       </c>
       <c r="K58" s="3">
         <v>85000</v>
@@ -2699,192 +2966,222 @@
         <v>85000</v>
       </c>
       <c r="N58" s="3">
+        <v>85000</v>
+      </c>
+      <c r="O58" s="3">
+        <v>85000</v>
+      </c>
+      <c r="P58" s="3">
         <v>120000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>508000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>519000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17073000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>14895000</v>
+      </c>
+      <c r="F59" s="3">
         <v>15367000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>16221000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>16776000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>14424000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>14690000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>16297000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>15049000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>14670000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>14471000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>14944000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>14330000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>12745000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>13577000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18624000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>16070000</v>
+      </c>
+      <c r="F60" s="3">
         <v>16736000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>17204000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>17654000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>15301000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>15555000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>16382000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>15804000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>14755000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>14556000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>15029000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>14585000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>13370000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>14217000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5177000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5323000</v>
+      </c>
+      <c r="F61" s="3">
         <v>5404000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>4308000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>4543000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>4418000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>4498000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>4589000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4507000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4450000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4493000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4097000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>3975000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3357000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>3267000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3537000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3664000</v>
+      </c>
+      <c r="F62" s="3">
         <v>3532000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3422000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3454000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2669000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2798000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2868000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3071000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2976000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3142000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3204000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>3215000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>3292000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>3363000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>27464000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>25177000</v>
+      </c>
+      <c r="F66" s="3">
         <v>25816000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>25076000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>25801000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>22533000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>22992000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>23985000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>23540000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>22332000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>22357000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>22511000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>21954000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>20188000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>21034000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2009000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1792000</v>
+      </c>
+      <c r="F72" s="3">
         <v>1336000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1442000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1439000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1201000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1102000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1270000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1557000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1104000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1130000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1402000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1561000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1452000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1455000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10263000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>10249000</v>
+      </c>
+      <c r="F76" s="3">
         <v>9887000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>10090000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>10092000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>9852000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>10049000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>10228000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>10672000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>10126000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>9915000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>10263000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>10278000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>10065000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>10767000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>305000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>544000</v>
+      </c>
+      <c r="F81" s="3">
         <v>75000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>138000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>287000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>378000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>44000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>58000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>215000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>246000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-54000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>34000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>345000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>142000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>190000</v>
+      </c>
+      <c r="F83" s="3">
         <v>176000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>182000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>181000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>181000</v>
       </c>
       <c r="H83" s="3">
         <v>181000</v>
       </c>
       <c r="I83" s="3">
+        <v>181000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>181000</v>
+      </c>
+      <c r="K83" s="3">
         <v>193000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>192000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>223000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>198000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>209000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>203000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>194000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>461000</v>
+      </c>
+      <c r="F89" s="3">
         <v>317000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>350000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-47000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>572000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>321000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>377000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>18000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>347000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>196000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>224000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>95000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>299000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-55000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-63000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-57000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-59000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-68000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-76000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-65000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-102000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-79000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-57000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-77000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>127000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-162000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-162000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-83000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1383000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-73000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-75000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-101000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-87000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-74000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-79000</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-73000</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-107000</v>
       </c>
       <c r="M94" s="3">
         <v>-73000</v>
       </c>
       <c r="N94" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="P94" s="3">
         <v>-82000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-88000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-25000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4160,40 +4627,46 @@
         <v>-84000</v>
       </c>
       <c r="F96" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-77000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-78000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-79000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-81000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-68000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-68000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-72000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-72000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-65000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-66000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-66000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-377000</v>
+      </c>
+      <c r="F100" s="3">
         <v>1148000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-456000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>82000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-361000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-207000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-311000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-24000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-233000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-50000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-210000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>14000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-116000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-331000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-20000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-8000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-7000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-35000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>9000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>77000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>21000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>10000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-5000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F102" s="3">
         <v>62000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-180000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-41000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>102000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>20000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-43000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-76000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>118000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>60000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-49000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>31000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>103000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-182000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WLTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WLTW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>WLTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,138 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2113000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2466000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2690000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1989000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2048000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2312000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2372000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1859000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1990000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2292000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2078000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1852000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1953000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2319000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1927000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1777000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,108 +1025,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E14" s="3">
         <v>9000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>6000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>54000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>50000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>55000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>43000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>139000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>105000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>90000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>67000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>138000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E15" s="3">
         <v>219000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>190000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>176000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>182000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>181000</v>
       </c>
       <c r="I15" s="3">
         <v>181000</v>
       </c>
       <c r="J15" s="3">
+        <v>181000</v>
+      </c>
+      <c r="K15" s="3">
         <v>180000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>191000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>190000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>192000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>195000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>200000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>197000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>194000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1950000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2106000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2003000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1882000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1872000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1953000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1902000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1842000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1927000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2033000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1998000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1878000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1892000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1918000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1839000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1776000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E18" s="3">
         <v>360000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>687000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>107000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>176000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>359000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>470000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>17000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>63000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>259000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>80000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-26000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>61000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>401000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>88000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E20" s="3">
         <v>92000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>50000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>55000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>67000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>55000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>60000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>70000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>63000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>56000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>47000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>38000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>34000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>44000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>425000</v>
+      </c>
+      <c r="E21" s="3">
         <v>671000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>927000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>338000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>425000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>595000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>711000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>268000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>319000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>507000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>350000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>210000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>304000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>648000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>281000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E22" s="3">
         <v>61000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>62000</v>
       </c>
       <c r="F22" s="3">
         <v>62000</v>
       </c>
       <c r="G22" s="3">
+        <v>62000</v>
+      </c>
+      <c r="H22" s="3">
         <v>56000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>54000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>53000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>51000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>52000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>51000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>47000</v>
       </c>
       <c r="N22" s="3">
         <v>47000</v>
       </c>
       <c r="O22" s="3">
+        <v>47000</v>
+      </c>
+      <c r="P22" s="3">
         <v>46000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>47000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>46000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E23" s="3">
         <v>391000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>675000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>100000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>187000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>360000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>477000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>36000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>74000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>264000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>80000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-35000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>49000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>398000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>41000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-58000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E24" s="3">
         <v>78000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>124000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>20000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>38000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>67000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>94000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-10000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>43000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-243000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>19000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>46000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-107000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-26000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E26" s="3">
         <v>313000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>551000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>80000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>149000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>293000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>383000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>46000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>65000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>221000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>323000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-54000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>41000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>352000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>148000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E27" s="3">
         <v>305000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>544000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>75000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>138000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>287000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>378000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>44000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>58000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>215000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>316000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-54000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>34000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>345000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>142000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,19 +1753,22 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
@@ -1715,11 +1776,11 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1727,12 +1788,12 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-70000</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-92000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-50000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-55000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-67000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-55000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-60000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-70000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-63000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-56000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-47000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-38000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-34000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-44000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E33" s="3">
         <v>305000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>544000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>75000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>138000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>287000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>378000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>44000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>58000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>215000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>246000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-54000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>34000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>345000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>142000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E35" s="3">
         <v>305000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>544000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>75000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>138000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>287000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>378000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>44000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>58000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>215000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>246000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-54000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>34000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>345000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>142000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1087000</v>
+      </c>
+      <c r="E41" s="3">
         <v>898000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>887000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>867000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>812000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>992000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1033000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>931000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>911000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>954000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1030000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>912000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>852000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>901000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>870000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>767000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,58 +2330,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2491000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2669000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2702000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2375000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2578000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2490000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2440000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2333000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2394000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2600000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2416000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2294000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2288000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2307000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2177000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2115000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,258 +2436,276 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16344000</v>
+      </c>
+      <c r="E45" s="3">
         <v>15983000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13448000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14158000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14943000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15538000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12947000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13492000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14584000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14052000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12415000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12485000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13093000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12587000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10745000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>11851000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19922000</v>
+      </c>
+      <c r="E46" s="3">
         <v>19550000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>17037000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>17400000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>18333000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>19020000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>16420000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>16756000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17889000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17606000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15861000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15691000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16233000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15795000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>13792000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>14733000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E47" s="3">
         <v>167000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>283000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>170000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>38000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
         <v>27000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>31000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>100000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>294000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>292000</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>227000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1883000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1880000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2014000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1922000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1897000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1903000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>942000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>944000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>924000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>926000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>985000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>937000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>895000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>863000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>839000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>811000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>14453000</v>
+      </c>
+      <c r="E49" s="3">
         <v>14522000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14672000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14748000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>13509000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>13643000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>13783000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>13886000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14030000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14316000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14401000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14563000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>14665000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14687000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14781000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>15072000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1647000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1608000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1420000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1463000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1389000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1327000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1213000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1424000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1370000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1264000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>917000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>789000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>981000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>887000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>614000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>978000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>38110000</v>
+      </c>
+      <c r="E54" s="3">
         <v>37727000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>35426000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>35703000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>35166000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>35893000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>32385000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>33041000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>34213000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>34212000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>32458000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>32272000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>32774000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>32232000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>30253000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>31801000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,84 +3010,88 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>832000</v>
+      </c>
+      <c r="E57" s="3">
         <v>854000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>856000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>882000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>793000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>688000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>691000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>679000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>670000</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>135000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>117000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>121000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>525000</v>
+      </c>
+      <c r="E58" s="3">
         <v>697000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>319000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>487000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>190000</v>
       </c>
       <c r="H58" s="3">
         <v>190000</v>
       </c>
       <c r="I58" s="3">
-        <v>186000</v>
+        <v>190000</v>
       </c>
       <c r="J58" s="3">
         <v>186000</v>
       </c>
       <c r="K58" s="3">
-        <v>85000</v>
+        <v>186000</v>
       </c>
       <c r="L58" s="3">
         <v>85000</v>
@@ -2972,216 +3106,231 @@
         <v>85000</v>
       </c>
       <c r="P58" s="3">
+        <v>85000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>120000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>508000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>519000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17662000</v>
+      </c>
+      <c r="E59" s="3">
         <v>17073000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14895000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15367000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16221000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>16776000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14424000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14690000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16297000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15049000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14670000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14471000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14944000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14330000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12745000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13577000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19019000</v>
+      </c>
+      <c r="E60" s="3">
         <v>18624000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16070000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16736000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>17204000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>17654000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15301000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15555000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16382000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15804000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14755000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14556000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15029000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14585000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>13370000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14217000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5068000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5177000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5323000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5404000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4308000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4543000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4418000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4498000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4589000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4507000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4450000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4493000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4097000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3975000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3357000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3267000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3567000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3537000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3664000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3532000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3422000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3454000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2669000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2798000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2868000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3071000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2976000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3142000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3204000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3215000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3292000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3363000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>27775000</v>
+      </c>
+      <c r="E66" s="3">
         <v>27464000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>25177000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>25816000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>25076000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>25801000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22533000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22992000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23985000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23540000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22332000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22357000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22511000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>21954000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20188000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>21034000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2015000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2009000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1792000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1336000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1442000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1439000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1201000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1102000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1270000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1557000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1104000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1130000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1402000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1561000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1452000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1455000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10335000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10263000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10249000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9887000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10090000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10092000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9852000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10049000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10228000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10672000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10126000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9915000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10263000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10278000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10065000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10767000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E81" s="3">
         <v>305000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>544000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>75000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>138000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>287000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>378000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>44000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>58000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>215000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>246000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-54000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>34000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>345000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>142000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,25 +4223,26 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E83" s="3">
         <v>219000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>190000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>176000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>182000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>181000</v>
       </c>
       <c r="I83" s="3">
         <v>181000</v>
@@ -4052,31 +4251,34 @@
         <v>181000</v>
       </c>
       <c r="K83" s="3">
+        <v>181000</v>
+      </c>
+      <c r="L83" s="3">
         <v>193000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>192000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>223000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>198000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>209000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>203000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>194000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>662000</v>
+      </c>
+      <c r="E89" s="3">
         <v>23000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>461000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>317000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>350000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-47000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>572000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>321000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>377000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>18000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>347000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>196000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>224000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>95000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>299000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-66000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-71000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-55000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-63000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-57000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-59000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-68000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-76000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-65000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-102000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-79000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-57000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-77000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>127000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-162000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-162000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-83000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1383000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-73000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-75000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-101000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-87000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-74000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-79000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-73000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-107000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-73000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-82000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-88000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-25000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,13 +4848,14 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-84000</v>
+        <v>-87000</v>
       </c>
       <c r="E96" s="3">
         <v>-84000</v>
@@ -4633,40 +4867,43 @@
         <v>-84000</v>
       </c>
       <c r="H96" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-77000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-78000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-79000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-81000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-68000</v>
       </c>
       <c r="M96" s="3">
         <v>-68000</v>
       </c>
       <c r="N96" s="3">
-        <v>-72000</v>
+        <v>-68000</v>
       </c>
       <c r="O96" s="3">
         <v>-72000</v>
       </c>
       <c r="P96" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-66000</v>
       </c>
       <c r="R96" s="3">
         <v>-66000</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-66000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-401000</v>
+      </c>
+      <c r="E100" s="3">
         <v>186000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-377000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1148000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-456000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>82000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-361000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-207000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-311000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-24000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-233000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-50000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-210000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>14000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-116000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-331000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-36000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>20000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-20000</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-1000</v>
       </c>
       <c r="H101" s="3">
         <v>-1000</v>
       </c>
       <c r="I101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J101" s="3">
         <v>-8000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-7000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-35000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>9000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>77000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>21000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>10000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>188000</v>
+      </c>
+      <c r="E102" s="3">
         <v>11000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>21000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>62000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-180000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-41000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>102000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>20000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-43000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-76000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>118000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>60000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-49000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>31000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>103000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-182000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WLTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WLTW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>WLTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,145 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2009000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2113000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2466000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2690000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1989000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2048000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2312000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2372000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1859000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1990000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2292000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2078000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1852000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1953000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2319000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1927000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1777000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,114 +1045,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="E14" s="3">
         <v>14000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>9000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>6000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>54000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>50000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>55000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>43000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>139000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>105000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>90000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>67000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>138000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E15" s="3">
         <v>186000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>219000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>190000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>176000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>182000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>181000</v>
       </c>
       <c r="J15" s="3">
         <v>181000</v>
       </c>
       <c r="K15" s="3">
+        <v>181000</v>
+      </c>
+      <c r="L15" s="3">
         <v>180000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>191000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>190000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>192000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>195000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>200000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>197000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>194000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1851000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1950000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2106000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2003000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1882000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1872000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1953000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1902000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1842000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1927000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2033000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1998000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1878000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1892000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1918000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1839000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1776000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>158000</v>
+      </c>
+      <c r="E18" s="3">
         <v>163000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>360000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>687000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>107000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>176000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>359000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>470000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>17000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>63000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>259000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>80000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-26000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>61000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>401000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>88000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E20" s="3">
         <v>76000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>92000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>50000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>55000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>67000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>55000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>60000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>70000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>63000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>56000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>47000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>38000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>34000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>44000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>410000</v>
+      </c>
+      <c r="E21" s="3">
         <v>425000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>671000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>927000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>338000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>425000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>595000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>711000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>268000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>319000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>507000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>350000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>210000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>304000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>648000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>281000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E22" s="3">
         <v>62000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>61000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>62000</v>
       </c>
       <c r="G22" s="3">
         <v>62000</v>
       </c>
       <c r="H22" s="3">
+        <v>62000</v>
+      </c>
+      <c r="I22" s="3">
         <v>56000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>54000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>53000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>51000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>52000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>51000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>47000</v>
       </c>
       <c r="O22" s="3">
         <v>47000</v>
       </c>
       <c r="P22" s="3">
+        <v>47000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>46000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>47000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>46000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E23" s="3">
         <v>177000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>391000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>675000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>100000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>187000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>360000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>477000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>36000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>74000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>264000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>80000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-35000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>49000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>398000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>41000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-58000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>75000</v>
+        <v>43000</v>
       </c>
       <c r="E24" s="3">
+        <v>40000</v>
+      </c>
+      <c r="F24" s="3">
         <v>78000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>124000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>20000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>38000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>67000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>94000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-10000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>43000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-243000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>19000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>46000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-107000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-26000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>102000</v>
+        <v>125000</v>
       </c>
       <c r="E26" s="3">
+        <v>137000</v>
+      </c>
+      <c r="F26" s="3">
         <v>313000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>551000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>80000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>149000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>293000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>383000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>46000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>65000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>221000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>323000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-54000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>41000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>352000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>148000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>94000</v>
+        <v>124000</v>
       </c>
       <c r="E27" s="3">
+        <v>129000</v>
+      </c>
+      <c r="F27" s="3">
         <v>305000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>544000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>75000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>138000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>287000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>378000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>44000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>58000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>215000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>316000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-54000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>34000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>345000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>142000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,22 +1814,25 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -1779,11 +1840,11 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -1791,12 +1852,12 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-70000</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-76000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-92000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-50000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-55000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-67000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-55000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-60000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-70000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-63000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-56000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-47000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-38000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-44000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E33" s="3">
         <v>94000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>305000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>544000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>75000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>138000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>287000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>378000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>44000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>58000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>215000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>246000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-54000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>34000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>345000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>142000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E35" s="3">
         <v>94000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>305000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>544000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>75000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>138000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>287000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>378000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>44000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>58000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>215000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>246000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-54000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>34000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>345000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>142000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1647000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1087000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>898000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>887000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>867000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>812000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>992000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1033000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>931000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>911000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>954000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1030000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>912000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>852000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>901000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>870000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>767000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,61 +2423,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2223000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2491000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2669000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2702000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2375000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2578000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2490000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2440000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2333000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2394000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2600000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2416000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2294000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2288000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2307000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2177000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2115000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,273 +2535,291 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16044000</v>
+      </c>
+      <c r="E45" s="3">
         <v>16344000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15983000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13448000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14158000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14943000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15538000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12947000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13492000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14584000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14052000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12415000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12485000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>13093000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12587000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10745000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>11851000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19914000</v>
+      </c>
+      <c r="E46" s="3">
         <v>19922000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>19550000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>17037000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>17400000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>18333000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>19020000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>16420000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16756000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17889000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17606000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15861000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15691000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16233000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15795000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13792000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>14733000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>413000</v>
+      </c>
+      <c r="E47" s="3">
         <v>205000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>167000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>283000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>170000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>38000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>27000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>31000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>100000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>294000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>292000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>227000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1891000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1883000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1880000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2014000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1922000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1897000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1903000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>942000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>944000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>924000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>926000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>985000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>937000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>895000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>863000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>839000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>811000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>14256000</v>
+      </c>
+      <c r="E49" s="3">
         <v>14453000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14522000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14672000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14748000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>13509000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>13643000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>13783000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13886000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14030000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14316000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14401000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>14563000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14665000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14687000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>14781000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>15072000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1563000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1647000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1608000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1420000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1463000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1389000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1327000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1213000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1424000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1370000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1264000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>917000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>789000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>981000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>887000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>614000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>978000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>38037000</v>
+      </c>
+      <c r="E54" s="3">
         <v>38110000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>37727000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>35426000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>35703000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>35166000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>35893000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>32385000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>33041000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>34213000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>34212000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>32458000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>32272000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>32774000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>32232000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>30253000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>31801000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,90 +3141,94 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
         <v>832000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>854000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>856000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>882000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>793000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>688000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>691000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>679000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>670000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>135000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>117000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>121000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>973000</v>
+      </c>
+      <c r="E58" s="3">
         <v>525000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>697000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>319000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>487000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>190000</v>
       </c>
       <c r="I58" s="3">
         <v>190000</v>
       </c>
       <c r="J58" s="3">
-        <v>186000</v>
+        <v>190000</v>
       </c>
       <c r="K58" s="3">
         <v>186000</v>
       </c>
       <c r="L58" s="3">
-        <v>85000</v>
+        <v>186000</v>
       </c>
       <c r="M58" s="3">
         <v>85000</v>
@@ -3109,228 +3243,243 @@
         <v>85000</v>
       </c>
       <c r="Q58" s="3">
+        <v>85000</v>
+      </c>
+      <c r="R58" s="3">
         <v>120000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>508000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>519000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18247000</v>
+      </c>
+      <c r="E59" s="3">
         <v>17662000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17073000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14895000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15367000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>16221000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>16776000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14424000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14690000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16297000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15049000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14670000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14471000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14944000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14330000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12745000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13577000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19220000</v>
+      </c>
+      <c r="E60" s="3">
         <v>19019000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18624000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16070000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16736000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>17204000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>17654000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15301000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15555000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16382000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15804000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14755000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14556000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15029000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14585000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>13370000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>14217000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4641000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5068000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5177000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5323000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5404000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4308000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4543000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4418000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4498000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4589000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4507000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4450000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4493000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4097000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3975000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3357000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3267000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3556000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3567000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3537000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3664000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3532000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3422000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3454000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2669000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2798000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2868000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3071000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2976000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3142000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3204000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3215000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3292000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3363000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>27522000</v>
+      </c>
+      <c r="E66" s="3">
         <v>27775000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>27464000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>25177000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>25816000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>25076000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>25801000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22533000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22992000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23985000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23540000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22332000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22357000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>22511000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21954000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20188000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>21034000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2047000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2015000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2009000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1792000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1336000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1442000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1439000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1201000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1102000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1270000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1557000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1104000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1130000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1402000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1561000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1452000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1455000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10515000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10335000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10263000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10249000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9887000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10090000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10092000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9852000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10049000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10228000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10672000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10126000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9915000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10263000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10278000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10065000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10767000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E81" s="3">
         <v>94000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>305000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>544000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>75000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>138000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>287000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>378000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>44000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>58000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>215000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>246000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-54000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>34000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>345000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>142000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,28 +4422,29 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E83" s="3">
         <v>186000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>219000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>190000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>176000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>182000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>181000</v>
       </c>
       <c r="J83" s="3">
         <v>181000</v>
@@ -4254,31 +4453,34 @@
         <v>181000</v>
       </c>
       <c r="L83" s="3">
+        <v>181000</v>
+      </c>
+      <c r="M83" s="3">
         <v>193000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>192000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>223000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>198000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>209000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>203000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>194000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>521000</v>
+      </c>
+      <c r="E89" s="3">
         <v>662000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>23000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>461000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>317000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>350000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-47000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>572000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>321000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>377000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>18000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>347000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>196000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>224000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>95000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>299000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-69000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-66000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-71000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-55000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-63000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-57000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-59000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-68000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-76000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-65000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-102000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-79000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-57000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-77000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>127000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-162000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>141000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-87000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-162000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-83000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1383000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-73000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-75000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-101000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-87000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-74000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-79000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-73000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-107000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-73000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-82000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-88000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-25000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,16 +5082,17 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-87000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-84000</v>
       </c>
       <c r="F96" s="3">
         <v>-84000</v>
@@ -4870,40 +5104,43 @@
         <v>-84000</v>
       </c>
       <c r="I96" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-77000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-78000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-79000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-81000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-68000</v>
       </c>
       <c r="N96" s="3">
         <v>-68000</v>
       </c>
       <c r="O96" s="3">
-        <v>-72000</v>
+        <v>-68000</v>
       </c>
       <c r="P96" s="3">
         <v>-72000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-66000</v>
       </c>
       <c r="S96" s="3">
         <v>-66000</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-66000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-119000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-401000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>186000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-377000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1148000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-456000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>82000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-361000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-207000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-311000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-24000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-233000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-50000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-210000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>14000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-116000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-331000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E101" s="3">
         <v>14000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-36000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>20000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-20000</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-1000</v>
       </c>
       <c r="I101" s="3">
         <v>-1000</v>
       </c>
       <c r="J101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-7000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-35000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>9000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>77000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>21000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>10000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>560000</v>
+      </c>
+      <c r="E102" s="3">
         <v>188000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>11000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>21000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>62000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-180000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-41000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>102000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>20000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-43000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-76000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>118000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>60000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-49000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>31000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>103000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-182000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WLTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WLTW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>WLTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,151 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2764000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2009000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2113000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2466000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2690000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1989000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2048000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2312000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2372000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1859000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1990000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2292000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2078000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1852000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1953000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2319000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1927000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1777000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,120 +1064,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-43000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>14000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>9000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>6000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>54000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>50000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>55000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>43000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>139000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>105000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>90000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>67000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>138000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>184000</v>
+      </c>
+      <c r="E15" s="3">
         <v>181000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>186000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>219000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>190000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>176000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>182000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>181000</v>
       </c>
       <c r="K15" s="3">
         <v>181000</v>
       </c>
       <c r="L15" s="3">
+        <v>181000</v>
+      </c>
+      <c r="M15" s="3">
         <v>180000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>191000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>190000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>192000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>195000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>200000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>197000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>194000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2179000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1851000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1950000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2106000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2003000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1882000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1872000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1953000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1902000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1842000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1927000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2033000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1998000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1878000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1892000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1918000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1839000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1776000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>585000</v>
+      </c>
+      <c r="E18" s="3">
         <v>158000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>163000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>360000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>687000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>107000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>176000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>359000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>470000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>17000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>63000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>259000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>80000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>61000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>401000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>88000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E20" s="3">
         <v>71000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>76000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>92000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>50000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>55000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>67000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>55000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>60000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>70000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>63000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>56000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>47000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>38000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>34000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>44000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>846000</v>
+      </c>
+      <c r="E21" s="3">
         <v>410000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>425000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>671000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>927000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>338000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>425000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>595000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>711000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>268000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>319000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>507000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>350000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>210000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>304000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>648000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>281000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E22" s="3">
         <v>61000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>62000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>61000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>62000</v>
       </c>
       <c r="H22" s="3">
         <v>62000</v>
       </c>
       <c r="I22" s="3">
+        <v>62000</v>
+      </c>
+      <c r="J22" s="3">
         <v>56000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>54000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>53000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>51000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>52000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>51000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>47000</v>
       </c>
       <c r="P22" s="3">
         <v>47000</v>
       </c>
       <c r="Q22" s="3">
+        <v>47000</v>
+      </c>
+      <c r="R22" s="3">
         <v>46000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>47000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>46000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>602000</v>
+      </c>
+      <c r="E23" s="3">
         <v>168000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>177000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>391000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>675000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>100000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>187000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>360000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>477000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>36000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>74000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>264000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>80000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>49000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>398000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>41000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-58000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E24" s="3">
         <v>43000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>40000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>78000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>124000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>20000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>38000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>67000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>94000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-10000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>43000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-243000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>19000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>46000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-107000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-26000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>506000</v>
+      </c>
+      <c r="E26" s="3">
         <v>125000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>137000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>313000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>551000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>80000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>149000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>293000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>383000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>46000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>65000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>221000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>323000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-54000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>41000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>352000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>148000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>499000</v>
+      </c>
+      <c r="E27" s="3">
         <v>124000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>129000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>305000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>544000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>75000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>138000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>287000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>378000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>44000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>58000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>215000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>316000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-54000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>34000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>345000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>142000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,25 +1874,28 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-3000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-35000</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
@@ -1843,11 +1903,11 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -1855,12 +1915,12 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-70000</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-71000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-76000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-92000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-50000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-55000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-67000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-55000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-60000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-70000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-63000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-56000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-47000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-34000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-44000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>476000</v>
+      </c>
+      <c r="E33" s="3">
         <v>121000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>94000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>305000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>544000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>75000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>138000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>287000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>378000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>44000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>58000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>215000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>246000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-54000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>34000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>345000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>142000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>476000</v>
+      </c>
+      <c r="E35" s="3">
         <v>121000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>94000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>305000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>544000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>75000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>138000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>287000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>378000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>44000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>58000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>215000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>246000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-54000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>34000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>345000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>142000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2089000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1647000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1087000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>898000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>887000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>867000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>812000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>992000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1033000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>931000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>911000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>954000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1030000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>912000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>852000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>901000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>870000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>767000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,64 +2515,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2555000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2223000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2491000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2669000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2702000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2375000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2578000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2490000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2440000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2333000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2394000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2600000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2416000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2294000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2288000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2307000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2177000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2115000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,288 +2633,306 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15657000</v>
+      </c>
+      <c r="E45" s="3">
         <v>16044000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16344000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15983000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13448000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14158000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14943000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15538000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12947000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13492000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14584000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14052000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12415000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12485000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>13093000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12587000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10745000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>11851000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20301000</v>
+      </c>
+      <c r="E46" s="3">
         <v>19914000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>19922000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>19550000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>17037000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>17400000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>18333000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>19020000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16420000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16756000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17889000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17606000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15861000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15691000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16233000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15795000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>13792000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>14733000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>542000</v>
+      </c>
+      <c r="E47" s="3">
         <v>413000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>205000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>167000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>283000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>170000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>38000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>27000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>31000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>100000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>294000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>292000</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>227000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1916000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1891000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1883000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1880000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2014000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1922000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1897000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1903000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>942000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>944000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>924000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>926000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>985000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>937000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>895000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>863000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>839000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>811000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>14247000</v>
+      </c>
+      <c r="E49" s="3">
         <v>14256000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14453000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14522000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14672000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14748000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>13509000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>13643000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13783000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13886000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14030000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14316000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>14401000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14563000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14665000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>14687000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>14781000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>15072000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1525000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1563000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1647000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1608000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1420000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1463000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1389000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1327000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1213000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1424000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1370000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1264000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>917000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>789000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>981000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>887000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>614000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>978000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>38531000</v>
+      </c>
+      <c r="E54" s="3">
         <v>38037000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>38110000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>37727000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>35426000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>35703000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>35166000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>35893000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32385000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>33041000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>34213000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>34212000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>32458000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>32272000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>32774000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>32232000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>30253000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>31801000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,96 +3271,100 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
         <v>832000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>854000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>856000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>882000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>793000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>688000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>691000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>679000</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>670000</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>135000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>117000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>121000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>971000</v>
+      </c>
+      <c r="E58" s="3">
         <v>973000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>525000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>697000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>319000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>487000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>190000</v>
       </c>
       <c r="J58" s="3">
         <v>190000</v>
       </c>
       <c r="K58" s="3">
-        <v>186000</v>
+        <v>190000</v>
       </c>
       <c r="L58" s="3">
         <v>186000</v>
       </c>
       <c r="M58" s="3">
-        <v>85000</v>
+        <v>186000</v>
       </c>
       <c r="N58" s="3">
         <v>85000</v>
@@ -3246,240 +3379,255 @@
         <v>85000</v>
       </c>
       <c r="R58" s="3">
+        <v>85000</v>
+      </c>
+      <c r="S58" s="3">
         <v>120000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>508000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>519000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18361000</v>
+      </c>
+      <c r="E59" s="3">
         <v>18247000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17662000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17073000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14895000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15367000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>16221000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>16776000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14424000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14690000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16297000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15049000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14670000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14471000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14944000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14330000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12745000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13577000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19332000</v>
+      </c>
+      <c r="E60" s="3">
         <v>19220000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19019000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18624000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16070000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16736000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>17204000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>17654000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15301000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15555000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16382000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15804000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14755000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14556000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15029000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14585000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>13370000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>14217000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4664000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4641000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5068000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5177000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5323000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5404000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4308000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4543000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4418000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4498000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4589000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4507000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4450000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4493000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4097000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3975000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3357000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3267000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3603000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3556000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3567000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3537000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3664000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3532000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3422000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3454000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2669000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2798000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2868000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3071000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2976000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3142000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3204000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3215000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3292000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3363000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>27711000</v>
+      </c>
+      <c r="E66" s="3">
         <v>27522000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>27775000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>27464000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>25177000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>25816000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>25076000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>25801000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22533000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22992000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23985000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23540000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22332000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>22357000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>22511000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>21954000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>20188000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>21034000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2434000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2047000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2015000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2009000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1792000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1336000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1442000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1439000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1201000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1102000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1270000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1557000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1104000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1130000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1402000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1561000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1452000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1455000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10820000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10515000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10335000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10263000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10249000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9887000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10090000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10092000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9852000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10049000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10228000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10672000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10126000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9915000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10263000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10278000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10065000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10767000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>476000</v>
+      </c>
+      <c r="E81" s="3">
         <v>121000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>94000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>305000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>544000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>75000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>138000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>287000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>378000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>44000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>58000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>215000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>246000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-54000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>34000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>345000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>142000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,31 +4620,32 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>184000</v>
+      </c>
+      <c r="E83" s="3">
         <v>181000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>186000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>219000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>190000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>176000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>182000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>181000</v>
       </c>
       <c r="K83" s="3">
         <v>181000</v>
@@ -4456,31 +4654,34 @@
         <v>181000</v>
       </c>
       <c r="M83" s="3">
+        <v>181000</v>
+      </c>
+      <c r="N83" s="3">
         <v>193000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>192000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>223000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>198000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>209000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>203000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>194000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>568000</v>
+      </c>
+      <c r="E89" s="3">
         <v>521000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>662000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>23000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>461000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>317000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>350000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-47000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>572000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>321000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>377000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>18000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>347000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>196000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>224000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>95000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>299000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-48000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-69000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-66000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-71000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-55000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-63000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-57000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-59000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-68000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-76000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-65000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-102000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-79000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-57000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-77000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>127000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-162000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E94" s="3">
         <v>141000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-87000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-162000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-83000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1383000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-73000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-75000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-101000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-87000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-74000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-79000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-73000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-107000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-73000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-82000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-88000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-25000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,19 +5315,20 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-88000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-87000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-84000</v>
       </c>
       <c r="G96" s="3">
         <v>-84000</v>
@@ -5107,40 +5340,43 @@
         <v>-84000</v>
       </c>
       <c r="J96" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-77000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-78000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-79000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-81000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-68000</v>
       </c>
       <c r="O96" s="3">
         <v>-68000</v>
       </c>
       <c r="P96" s="3">
-        <v>-72000</v>
+        <v>-68000</v>
       </c>
       <c r="Q96" s="3">
         <v>-72000</v>
       </c>
       <c r="R96" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-66000</v>
       </c>
       <c r="T96" s="3">
         <v>-66000</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-66000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-119000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-401000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>186000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-377000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1148000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-456000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>82000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-361000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-207000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-311000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-24000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-233000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-50000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-210000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>14000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-116000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-331000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E101" s="3">
         <v>17000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>14000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-36000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>20000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-20000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-1000</v>
       </c>
       <c r="J101" s="3">
         <v>-1000</v>
       </c>
       <c r="K101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L101" s="3">
         <v>-8000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-7000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-35000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>9000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>77000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>21000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>10000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-5000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>442000</v>
+      </c>
+      <c r="E102" s="3">
         <v>560000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>188000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>21000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>62000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-180000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-41000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>102000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>20000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-43000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-76000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>118000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>60000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-49000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>31000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>103000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-182000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WLTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WLTW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>WLTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,158 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2590000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2764000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2009000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2113000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2466000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2690000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1989000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2048000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2312000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2372000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1859000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1990000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2292000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2078000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1852000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1953000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2319000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1927000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1777000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,126 +1084,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E14" s="3">
         <v>71000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-43000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>14000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>9000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>6000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>54000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>50000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>55000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>43000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>139000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>105000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>90000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>67000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>138000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E15" s="3">
         <v>184000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>181000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>186000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>219000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>190000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>176000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>182000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>181000</v>
       </c>
       <c r="L15" s="3">
         <v>181000</v>
       </c>
       <c r="M15" s="3">
+        <v>181000</v>
+      </c>
+      <c r="N15" s="3">
         <v>180000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>191000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>190000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>192000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>195000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>200000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>197000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>194000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2138000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2179000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1851000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1950000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2106000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2003000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1882000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1872000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1953000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1902000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1842000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1927000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2033000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1998000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1878000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1892000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1918000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1839000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1776000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>452000</v>
+      </c>
+      <c r="E18" s="3">
         <v>585000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>158000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>163000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>360000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>687000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>107000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>176000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>359000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>470000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>17000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>63000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>259000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>80000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-26000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>61000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>401000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>88000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,244 +1379,257 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>439000</v>
+      </c>
+      <c r="E20" s="3">
         <v>77000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>71000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>76000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>92000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>50000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>55000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>67000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>55000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>60000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>70000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>63000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>56000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>47000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>38000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>34000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>44000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1065000</v>
+      </c>
+      <c r="E21" s="3">
         <v>846000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>410000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>425000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>671000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>927000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>338000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>425000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>595000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>711000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>268000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>319000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>507000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>350000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>210000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>304000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>648000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>281000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E22" s="3">
         <v>60000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>61000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>62000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>61000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>62000</v>
       </c>
       <c r="I22" s="3">
         <v>62000</v>
       </c>
       <c r="J22" s="3">
+        <v>62000</v>
+      </c>
+      <c r="K22" s="3">
         <v>56000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>54000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>53000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>51000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>52000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>51000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>47000</v>
       </c>
       <c r="Q22" s="3">
         <v>47000</v>
       </c>
       <c r="R22" s="3">
+        <v>47000</v>
+      </c>
+      <c r="S22" s="3">
         <v>46000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>47000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>46000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>832000</v>
+      </c>
+      <c r="E23" s="3">
         <v>602000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>168000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>177000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>391000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>675000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>100000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>187000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>360000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>477000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>36000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>74000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>264000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>80000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-35000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>49000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>398000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>41000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-58000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1591,58 +1637,61 @@
         <v>96000</v>
       </c>
       <c r="E24" s="3">
+        <v>96000</v>
+      </c>
+      <c r="F24" s="3">
         <v>43000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>40000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>78000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>124000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>20000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>38000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>67000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>94000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-10000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>43000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-243000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>19000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>46000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-107000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-26000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>736000</v>
+      </c>
+      <c r="E26" s="3">
         <v>506000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>125000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>137000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>313000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>551000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>80000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>149000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>293000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>383000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>46000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>65000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>221000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>323000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-54000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>41000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>352000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>148000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>733000</v>
+      </c>
+      <c r="E27" s="3">
         <v>499000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>124000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>129000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>305000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>544000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>75000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>138000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>287000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>378000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>44000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>58000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>215000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>316000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-54000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>34000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>345000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>142000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,28 +1935,31 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
         <v>-23000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-3000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-35000</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
@@ -1906,11 +1967,11 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -1918,12 +1979,12 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-70000</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-439000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-77000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-71000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-76000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-92000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-50000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-55000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-67000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-55000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-60000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-70000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-63000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-56000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-47000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-38000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-34000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-44000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>733000</v>
+      </c>
+      <c r="E33" s="3">
         <v>476000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>121000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>94000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>305000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>544000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>75000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>138000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>287000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>378000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>44000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>58000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>215000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>246000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-54000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>34000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>345000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>142000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>733000</v>
+      </c>
+      <c r="E35" s="3">
         <v>476000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>121000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>94000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>305000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>544000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>75000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>138000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>287000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>378000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>44000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>58000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>215000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>246000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-54000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>34000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>345000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>142000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1960000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2089000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1647000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1087000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>898000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>887000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>867000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>812000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>992000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1033000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>931000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>911000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>954000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1030000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>912000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>852000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>901000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>870000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>767000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,67 +2608,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2682000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2555000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2223000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2491000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2669000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2702000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2375000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2578000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2490000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2440000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2333000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2394000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2600000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2416000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2294000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2288000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2307000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2177000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2115000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,303 +2732,321 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16230000</v>
+      </c>
+      <c r="E45" s="3">
         <v>15657000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16044000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16344000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15983000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13448000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14158000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14943000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15538000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12947000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13492000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14584000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14052000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12415000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12485000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>13093000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>12587000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>10745000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>11851000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20872000</v>
+      </c>
+      <c r="E46" s="3">
         <v>20301000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>19914000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>19922000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>19550000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>17037000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>17400000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>18333000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19020000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16420000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16756000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17889000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17606000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15861000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15691000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16233000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>15795000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>13792000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>14733000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>402000</v>
+      </c>
+      <c r="E47" s="3">
         <v>542000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>413000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>205000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>167000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>283000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>170000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>38000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>27000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>31000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>100000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>294000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>292000</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>227000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1792000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1916000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1891000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1883000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1880000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2014000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1922000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1897000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1903000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>942000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>944000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>924000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>926000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>985000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>937000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>895000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>863000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>839000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>811000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>13864000</v>
+      </c>
+      <c r="E49" s="3">
         <v>14247000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14256000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14453000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14522000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14672000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>14748000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>13509000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13643000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13783000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>13886000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14030000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>14316000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14401000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14563000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>14665000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>14687000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>14781000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>15072000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1702000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1525000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1563000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1647000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1608000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1420000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1463000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1389000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1327000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1213000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1424000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1370000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1264000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>917000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>789000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>981000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>887000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>614000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>978000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>38632000</v>
+      </c>
+      <c r="E54" s="3">
         <v>38531000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>38037000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>38110000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>37727000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>35426000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>35703000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>35166000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35893000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>32385000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>33041000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>34213000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>34212000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>32458000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>32272000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>32774000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>32232000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>30253000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>31801000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,102 +3402,106 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
+      <c r="D57" s="3">
+        <v>913000</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
         <v>832000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>854000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>856000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>882000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>793000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>688000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>691000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>679000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>670000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>135000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>117000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>121000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>471000</v>
+      </c>
+      <c r="E58" s="3">
         <v>971000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>973000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>525000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>697000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>319000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>487000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>190000</v>
       </c>
       <c r="K58" s="3">
         <v>190000</v>
       </c>
       <c r="L58" s="3">
-        <v>186000</v>
+        <v>190000</v>
       </c>
       <c r="M58" s="3">
         <v>186000</v>
       </c>
       <c r="N58" s="3">
-        <v>85000</v>
+        <v>186000</v>
       </c>
       <c r="O58" s="3">
         <v>85000</v>
@@ -3382,252 +3516,267 @@
         <v>85000</v>
       </c>
       <c r="S58" s="3">
+        <v>85000</v>
+      </c>
+      <c r="T58" s="3">
         <v>120000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>508000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>519000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17636000</v>
+      </c>
+      <c r="E59" s="3">
         <v>18361000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18247000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17662000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17073000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14895000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15367000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>16221000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16776000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14424000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14690000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16297000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15049000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14670000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14471000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14944000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14330000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>12745000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13577000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19020000</v>
+      </c>
+      <c r="E60" s="3">
         <v>19332000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19220000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19019000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18624000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16070000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>16736000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>17204000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17654000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15301000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15555000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16382000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15804000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14755000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14556000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15029000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>14585000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>13370000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>14217000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4632000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4664000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4641000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5068000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5177000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5323000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5404000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4308000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4543000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4418000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4498000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4589000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4507000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4450000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4493000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4097000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3975000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3357000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3267000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3406000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3603000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3556000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3567000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3537000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3664000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3532000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3422000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3454000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2669000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2798000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2868000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3071000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2976000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3142000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3204000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3215000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3292000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3363000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>27106000</v>
+      </c>
+      <c r="E66" s="3">
         <v>27711000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>27522000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>27775000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>27464000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>25177000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>25816000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>25076000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25801000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22533000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22992000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23985000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>23540000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>22332000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>22357000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>22511000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>21954000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>20188000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>21034000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3075000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2434000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2047000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2015000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2009000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1792000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1336000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1442000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1439000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1201000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1102000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1270000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1557000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1104000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1130000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1402000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1561000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1452000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1455000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11526000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10820000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10515000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10335000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10263000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10249000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9887000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10090000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10092000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9852000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10049000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10228000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10672000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10126000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9915000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10263000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10278000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10065000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10767000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>733000</v>
+      </c>
+      <c r="E81" s="3">
         <v>476000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>121000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>94000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>305000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>544000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>75000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>138000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>287000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>378000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>44000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>58000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>215000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>246000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-54000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>34000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>345000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>142000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,34 +4819,35 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E83" s="3">
         <v>184000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>181000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>186000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>219000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>190000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>176000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>182000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>181000</v>
       </c>
       <c r="L83" s="3">
         <v>181000</v>
@@ -4657,31 +4856,34 @@
         <v>181000</v>
       </c>
       <c r="N83" s="3">
+        <v>181000</v>
+      </c>
+      <c r="O83" s="3">
         <v>193000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>192000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>223000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>198000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>209000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>203000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>194000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="E89" s="3">
         <v>568000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>521000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>662000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>23000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>461000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>317000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>350000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-47000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>572000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>321000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>377000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>18000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>347000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>196000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>224000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>95000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>299000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-40000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-48000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-69000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-66000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-71000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-55000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-63000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-57000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-59000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-68000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-76000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-65000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-102000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-79000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-57000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-77000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>127000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-162000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>645000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-52000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>141000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-87000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-162000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-83000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1383000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-73000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-75000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-101000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-87000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-74000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-79000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-73000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-107000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-73000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-82000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-88000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-25000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,22 +5549,23 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-87000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-88000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-87000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-84000</v>
       </c>
       <c r="H96" s="3">
         <v>-84000</v>
@@ -5343,40 +5577,43 @@
         <v>-84000</v>
       </c>
       <c r="K96" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-77000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-78000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-79000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-81000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-68000</v>
       </c>
       <c r="P96" s="3">
         <v>-68000</v>
       </c>
       <c r="Q96" s="3">
-        <v>-72000</v>
+        <v>-68000</v>
       </c>
       <c r="R96" s="3">
         <v>-72000</v>
       </c>
       <c r="S96" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-66000</v>
       </c>
       <c r="U96" s="3">
         <v>-66000</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-66000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-633000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-119000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-401000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>186000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-377000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1148000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-456000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>82000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-361000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-207000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-311000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-24000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-233000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-50000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-210000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>14000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-116000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-331000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E101" s="3">
         <v>26000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>17000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>14000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-36000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>20000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-20000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-1000</v>
       </c>
       <c r="K101" s="3">
         <v>-1000</v>
       </c>
       <c r="L101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M101" s="3">
         <v>-8000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-7000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-35000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>9000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>77000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>21000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>10000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-5000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-130000</v>
+      </c>
+      <c r="E102" s="3">
         <v>442000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>560000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>188000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>21000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>62000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-180000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-41000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>102000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>20000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-43000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-76000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>118000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>60000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-49000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>31000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>103000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-182000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WLTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WLTW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>WLTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,165 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2286000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2590000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2764000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2009000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2113000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2466000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2690000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1989000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2048000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2312000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2372000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1859000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1990000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2292000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2078000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1852000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1953000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2319000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1927000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1777000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,132 +1104,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E14" s="3">
         <v>24000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>71000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-43000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>14000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>9000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>6000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>54000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>50000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>55000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>43000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>139000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>105000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>90000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>67000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>138000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E15" s="3">
         <v>174000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>184000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>181000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>186000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>219000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>190000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>176000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>182000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>181000</v>
       </c>
       <c r="M15" s="3">
         <v>181000</v>
       </c>
       <c r="N15" s="3">
+        <v>181000</v>
+      </c>
+      <c r="O15" s="3">
         <v>180000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>191000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>190000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>192000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>195000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>200000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>197000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>194000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2028000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2138000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2179000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1851000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1950000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2106000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2003000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1882000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1872000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1953000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1902000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1842000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1927000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2033000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1998000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1878000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1892000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1918000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1839000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1776000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>258000</v>
+      </c>
+      <c r="E18" s="3">
         <v>452000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>585000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>158000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>163000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>360000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>687000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>107000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>176000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>359000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>470000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>17000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>63000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>259000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>80000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-26000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>61000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>401000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>88000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,256 +1413,269 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E20" s="3">
         <v>439000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>77000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>71000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>76000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>92000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>50000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>55000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>67000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>55000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>60000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>70000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>63000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>56000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>47000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>38000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>34000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>44000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>504000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1065000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>846000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>410000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>425000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>671000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>927000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>338000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>425000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>595000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>711000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>268000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>319000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>507000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>350000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>210000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>304000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>648000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>281000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E22" s="3">
         <v>59000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>60000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>61000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>62000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>61000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>62000</v>
       </c>
       <c r="J22" s="3">
         <v>62000</v>
       </c>
       <c r="K22" s="3">
+        <v>62000</v>
+      </c>
+      <c r="L22" s="3">
         <v>56000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>54000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>53000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>51000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>52000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>51000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>47000</v>
       </c>
       <c r="R22" s="3">
         <v>47000</v>
       </c>
       <c r="S22" s="3">
+        <v>47000</v>
+      </c>
+      <c r="T22" s="3">
         <v>46000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>47000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>46000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>282000</v>
+      </c>
+      <c r="E23" s="3">
         <v>832000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>602000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>168000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>177000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>391000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>675000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>187000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>360000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>477000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>36000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>74000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>264000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>80000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-35000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>49000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>398000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>41000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-58000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1640,58 +1686,61 @@
         <v>96000</v>
       </c>
       <c r="F24" s="3">
+        <v>96000</v>
+      </c>
+      <c r="G24" s="3">
         <v>43000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>40000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>78000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>124000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>20000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>38000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>67000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>94000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-10000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>43000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-243000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>19000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>46000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-107000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-26000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E26" s="3">
         <v>736000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>506000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>125000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>137000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>313000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>551000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>80000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>149000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>293000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>383000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>46000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>65000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>221000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>323000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-54000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>41000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>352000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>148000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>184000</v>
+      </c>
+      <c r="E27" s="3">
         <v>733000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>499000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>124000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>129000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>305000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>544000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>75000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>138000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>287000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>378000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>44000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>58000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>215000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>316000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-54000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>34000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>345000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>142000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,31 +1996,34 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
         <v>-23000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-3000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-35000</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1970,11 +2031,11 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -1982,12 +2043,12 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-70000</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-439000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-77000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-71000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-76000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-92000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-50000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-55000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-67000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-55000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-60000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-70000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-63000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-56000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-47000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-38000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-34000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-44000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>184000</v>
+      </c>
+      <c r="E33" s="3">
         <v>733000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>476000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>121000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>94000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>305000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>544000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>75000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>138000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>287000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>378000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>44000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>58000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>215000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>246000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-54000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>34000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>345000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>142000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>184000</v>
+      </c>
+      <c r="E35" s="3">
         <v>733000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>476000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>121000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>94000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>305000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>544000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>75000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>138000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>287000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>378000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>44000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>58000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>215000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>246000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-54000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>34000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>345000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>142000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2217000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1960000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2089000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1647000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1087000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>898000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>887000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>867000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>812000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>992000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1033000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>931000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>911000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>954000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1030000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>912000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>852000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>901000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>870000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>767000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,70 +2701,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2507000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2682000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2555000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2223000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2491000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2669000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2702000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2375000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2578000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2490000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2440000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2333000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2394000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2600000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2416000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2294000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2288000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2307000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2177000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2115000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,318 +2831,336 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15844000</v>
+      </c>
+      <c r="E45" s="3">
         <v>16230000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15657000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16044000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16344000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15983000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13448000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14158000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14943000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15538000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12947000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13492000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14584000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>14052000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12415000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12485000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>13093000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>12587000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>10745000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>11851000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20568000</v>
+      </c>
+      <c r="E46" s="3">
         <v>20872000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>20301000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>19914000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>19922000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>19550000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>17037000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>17400000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18333000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19020000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16420000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16756000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17889000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17606000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15861000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15691000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16233000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>15795000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>13792000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>14733000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>424000</v>
+      </c>
+      <c r="E47" s="3">
         <v>402000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>542000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>413000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>205000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>167000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>283000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>170000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>38000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>27000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>31000</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>100000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>294000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>292000</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
         <v>227000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1757000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1792000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1916000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1891000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1883000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1880000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2014000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1922000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1897000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1903000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>942000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>944000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>924000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>926000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>985000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>937000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>895000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>863000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>839000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>811000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>13781000</v>
+      </c>
+      <c r="E49" s="3">
         <v>13864000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14247000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14256000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14453000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14522000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>14672000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>14748000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13509000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13643000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>13783000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>13886000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>14030000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14316000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14401000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>14563000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>14665000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>14687000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>14781000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>15072000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1737000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1702000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1525000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1563000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1647000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1608000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1420000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1463000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1389000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1327000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1213000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1424000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1370000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1264000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>917000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>789000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>981000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>887000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>614000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>978000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>38267000</v>
+      </c>
+      <c r="E54" s="3">
         <v>38632000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>38531000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>38037000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>38110000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>37727000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>35426000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>35703000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35166000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35893000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>32385000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>33041000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>34213000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>34212000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>32458000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>32272000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>32774000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>32232000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>30253000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>31801000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,108 +3533,112 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>961000</v>
+      </c>
+      <c r="E57" s="3">
         <v>913000</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
         <v>832000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>854000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>856000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>882000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>793000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>688000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>691000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>679000</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>670000</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>135000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>117000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>121000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1110000</v>
+      </c>
+      <c r="E58" s="3">
         <v>471000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>971000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>973000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>525000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>697000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>319000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>487000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>190000</v>
       </c>
       <c r="L58" s="3">
         <v>190000</v>
       </c>
       <c r="M58" s="3">
-        <v>186000</v>
+        <v>190000</v>
       </c>
       <c r="N58" s="3">
         <v>186000</v>
       </c>
       <c r="O58" s="3">
-        <v>85000</v>
+        <v>186000</v>
       </c>
       <c r="P58" s="3">
         <v>85000</v>
@@ -3519,264 +3653,279 @@
         <v>85000</v>
       </c>
       <c r="T58" s="3">
+        <v>85000</v>
+      </c>
+      <c r="U58" s="3">
         <v>120000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>508000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>519000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17103000</v>
+      </c>
+      <c r="E59" s="3">
         <v>17636000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18361000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18247000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17662000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17073000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14895000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15367000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16221000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16776000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14424000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14690000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>16297000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>15049000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14670000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14471000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14944000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14330000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>12745000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>13577000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19174000</v>
+      </c>
+      <c r="E60" s="3">
         <v>19020000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19332000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19220000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>19019000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18624000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>16070000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>16736000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17204000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17654000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15301000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15555000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16382000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15804000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14755000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14556000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15029000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>14585000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>13370000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>14217000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4012000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4632000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4664000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4641000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5068000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5177000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5323000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5404000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4308000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4543000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4418000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4498000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4589000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4507000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4450000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4493000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4097000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3975000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3357000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3267000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3366000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3406000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3603000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3556000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3567000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3537000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3664000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3532000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3422000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3454000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2669000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2798000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2868000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3071000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2976000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3142000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3204000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3215000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3292000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3363000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>26597000</v>
+      </c>
+      <c r="E66" s="3">
         <v>27106000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>27711000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>27522000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>27775000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>27464000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>25177000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>25816000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25076000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>25801000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22533000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22992000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>23985000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>23540000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>22332000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>22357000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>22511000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>21954000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>20188000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>21034000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3166000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3075000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2434000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2047000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2015000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2009000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1792000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1336000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1442000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1439000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1201000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1102000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1270000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1557000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1104000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1130000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1402000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1561000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1452000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1455000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11670000</v>
+      </c>
+      <c r="E76" s="3">
         <v>11526000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10820000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10515000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10335000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10263000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10249000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9887000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10090000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10092000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9852000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10049000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10228000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10672000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10126000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9915000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10263000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10278000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10065000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10767000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>184000</v>
+      </c>
+      <c r="E81" s="3">
         <v>733000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>476000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>121000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>94000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>305000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>544000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>75000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>138000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>287000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>378000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>44000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>58000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>215000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>246000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-54000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>34000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>345000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>142000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,37 +5018,38 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E83" s="3">
         <v>174000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>184000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>181000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>186000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>219000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>190000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>176000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>182000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>181000</v>
       </c>
       <c r="M83" s="3">
         <v>181000</v>
@@ -4859,31 +5058,34 @@
         <v>181000</v>
       </c>
       <c r="O83" s="3">
+        <v>181000</v>
+      </c>
+      <c r="P83" s="3">
         <v>193000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>192000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>223000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>198000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>209000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>203000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>194000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>494000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-128000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>568000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>521000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>662000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>23000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>461000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>317000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>350000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-47000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>572000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>321000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>377000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>18000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>347000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>196000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>224000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>95000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>299000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-37000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-40000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-48000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-69000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-66000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-71000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-55000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-63000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-57000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-59000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-68000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-76000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-65000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-102000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-79000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-57000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-77000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>127000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-162000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E94" s="3">
         <v>645000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-52000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>141000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-87000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-162000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-83000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1383000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-73000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-75000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-101000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-87000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-74000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-79000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-73000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-107000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-73000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-82000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-88000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-25000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,25 +5783,26 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-177000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-92000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-87000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-88000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-87000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-84000</v>
       </c>
       <c r="I96" s="3">
         <v>-84000</v>
@@ -5580,40 +5814,43 @@
         <v>-84000</v>
       </c>
       <c r="L96" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-77000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-78000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-79000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-81000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-68000</v>
       </c>
       <c r="Q96" s="3">
         <v>-68000</v>
       </c>
       <c r="R96" s="3">
-        <v>-72000</v>
+        <v>-68000</v>
       </c>
       <c r="S96" s="3">
         <v>-72000</v>
       </c>
       <c r="T96" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-66000</v>
       </c>
       <c r="V96" s="3">
         <v>-66000</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-66000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-188000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-633000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-119000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-401000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>186000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-377000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1148000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-456000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>82000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-361000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-207000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-311000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-233000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-50000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-210000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>14000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-116000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-331000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-14000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>26000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>17000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>14000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-36000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>20000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-20000</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-1000</v>
       </c>
       <c r="L101" s="3">
         <v>-1000</v>
       </c>
       <c r="M101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N101" s="3">
         <v>-8000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-7000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-35000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>9000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>77000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>21000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>10000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-5000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>255000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-130000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>442000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>560000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>188000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>21000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>62000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-180000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-41000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>102000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>20000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-43000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-76000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>118000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>60000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-49000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>31000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>103000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-182000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WLTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WLTW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>WLTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,172 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2286000</v>
+        <v>1973000</v>
       </c>
       <c r="E8" s="3">
+        <v>4319000</v>
+      </c>
+      <c r="F8" s="3">
         <v>2590000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2764000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2009000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2113000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2466000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2690000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1989000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2048000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2312000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2372000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1859000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1990000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2292000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2078000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1852000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1953000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2319000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1927000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1777000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,138 +1124,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>53000</v>
+        <v>-975000</v>
       </c>
       <c r="E14" s="3">
+        <v>-282000</v>
+      </c>
+      <c r="F14" s="3">
         <v>24000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>71000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-43000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>14000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>9000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>6000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>54000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>50000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>55000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>43000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>139000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>105000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>90000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>67000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>138000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>170000</v>
+        <v>154000</v>
       </c>
       <c r="E15" s="3">
+        <v>343000</v>
+      </c>
+      <c r="F15" s="3">
         <v>174000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>184000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>181000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>186000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>219000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>190000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>176000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>182000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>181000</v>
       </c>
       <c r="N15" s="3">
         <v>181000</v>
       </c>
       <c r="O15" s="3">
+        <v>181000</v>
+      </c>
+      <c r="P15" s="3">
         <v>180000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>191000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>190000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>192000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>195000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>200000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>197000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>194000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2028000</v>
+        <v>819000</v>
       </c>
       <c r="E17" s="3">
+        <v>3581000</v>
+      </c>
+      <c r="F17" s="3">
         <v>2138000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2179000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1851000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1950000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2106000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2003000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1882000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1872000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1953000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1902000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1842000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1927000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2033000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1998000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1878000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1892000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1918000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1839000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1776000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>258000</v>
+        <v>1154000</v>
       </c>
       <c r="E18" s="3">
+        <v>738000</v>
+      </c>
+      <c r="F18" s="3">
         <v>452000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>585000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>158000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>163000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>360000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>687000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>107000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>176000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>359000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>470000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>17000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>63000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>259000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>80000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-26000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>61000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>401000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>88000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>155000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>439000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>77000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>71000</v>
+      </c>
+      <c r="I20" s="3">
         <v>76000</v>
       </c>
-      <c r="E20" s="3">
-        <v>439000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>77000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>71000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>76000</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>92000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>50000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>55000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>67000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>55000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>60000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>70000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>63000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>56000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>47000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>38000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>34000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>44000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>504000</v>
+        <v>1390000</v>
       </c>
       <c r="E21" s="3">
+        <v>1237000</v>
+      </c>
+      <c r="F21" s="3">
         <v>1065000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>846000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>410000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>425000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>671000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>927000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>338000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>425000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>595000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>711000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>268000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>319000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>507000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>350000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>210000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>304000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>648000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>281000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>52000</v>
+        <v>50000</v>
       </c>
       <c r="E22" s="3">
+        <v>111000</v>
+      </c>
+      <c r="F22" s="3">
         <v>59000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>60000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>61000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>62000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>61000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>62000</v>
       </c>
       <c r="K22" s="3">
         <v>62000</v>
       </c>
       <c r="L22" s="3">
+        <v>62000</v>
+      </c>
+      <c r="M22" s="3">
         <v>56000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>54000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>53000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>51000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>52000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>51000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>47000</v>
       </c>
       <c r="S22" s="3">
         <v>47000</v>
       </c>
       <c r="T22" s="3">
+        <v>47000</v>
+      </c>
+      <c r="U22" s="3">
         <v>46000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>47000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>46000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>282000</v>
+        <v>1186000</v>
       </c>
       <c r="E23" s="3">
+        <v>782000</v>
+      </c>
+      <c r="F23" s="3">
         <v>832000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>602000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>168000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>177000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>391000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>675000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>187000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>360000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>477000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>36000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>74000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>264000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>80000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-35000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>49000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>398000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>41000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-58000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>96000</v>
+        <v>267000</v>
       </c>
       <c r="E24" s="3">
-        <v>96000</v>
+        <v>119000</v>
       </c>
       <c r="F24" s="3">
         <v>96000</v>
       </c>
       <c r="G24" s="3">
+        <v>96000</v>
+      </c>
+      <c r="H24" s="3">
         <v>43000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>40000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>78000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>124000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>20000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>38000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>67000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>94000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-10000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>43000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-243000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>19000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>46000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-107000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-26000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>186000</v>
+        <v>919000</v>
       </c>
       <c r="E26" s="3">
+        <v>663000</v>
+      </c>
+      <c r="F26" s="3">
         <v>736000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>506000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>125000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>137000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>313000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>551000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>80000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>149000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>293000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>383000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>46000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>65000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>221000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>323000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-54000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>41000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>352000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>148000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>184000</v>
+        <v>915000</v>
       </c>
       <c r="E27" s="3">
+        <v>658000</v>
+      </c>
+      <c r="F27" s="3">
         <v>733000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>499000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>124000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>129000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>305000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>544000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>75000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>138000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>287000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>378000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>44000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>58000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>215000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>316000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-54000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>34000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>345000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>142000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,34 +2057,37 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="D29" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E29" s="3">
+        <v>259000</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
         <v>-23000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-3000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-35000</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -2034,11 +2095,11 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -2046,12 +2107,12 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>-70000</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-155000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-439000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-76000</v>
       </c>
-      <c r="E32" s="3">
-        <v>-439000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-77000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-71000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-76000</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-92000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-50000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-55000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-67000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-55000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-60000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-70000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-63000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-56000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-47000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-38000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-34000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-44000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>184000</v>
+        <v>903000</v>
       </c>
       <c r="E33" s="3">
+        <v>917000</v>
+      </c>
+      <c r="F33" s="3">
         <v>733000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>476000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>121000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>94000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>305000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>544000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>75000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>138000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>287000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>378000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>44000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>58000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>215000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>246000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-54000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>34000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>345000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>142000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>184000</v>
+        <v>903000</v>
       </c>
       <c r="E35" s="3">
+        <v>917000</v>
+      </c>
+      <c r="F35" s="3">
         <v>733000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>476000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>121000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>94000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>305000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>544000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>75000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>138000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>287000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>378000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>44000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>58000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>215000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>246000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-54000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>34000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>345000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>142000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2162000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2217000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1960000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2089000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1647000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1087000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>898000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>887000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>867000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>812000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>992000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1033000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>931000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>911000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>954000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1030000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>912000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>852000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>901000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>870000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>767000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,73 +2794,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2065000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2507000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2682000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2555000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2223000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2491000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2669000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2702000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2375000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2578000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2490000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2440000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2333000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2394000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2600000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2416000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2294000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2288000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2307000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2177000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2115000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,333 +2930,351 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16364000</v>
+      </c>
+      <c r="E45" s="3">
         <v>15844000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16230000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15657000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16044000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16344000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15983000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13448000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14158000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14943000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15538000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12947000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13492000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>14584000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>14052000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12415000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>12485000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>13093000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>12587000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>10745000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>11851000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20591000</v>
+      </c>
+      <c r="E46" s="3">
         <v>20568000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>20872000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>20301000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>19914000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>19922000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>19550000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>17037000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17400000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18333000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>19020000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16420000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16756000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17889000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17606000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15861000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>15691000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16233000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>15795000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>13792000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>14733000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>454000</v>
+      </c>
+      <c r="E47" s="3">
         <v>424000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>402000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>542000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>413000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>205000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>167000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>283000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>170000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>38000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>27000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>31000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>100000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>294000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>292000</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="3">
         <v>227000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1676000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1757000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1792000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1916000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1891000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1883000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1880000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2014000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1922000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1897000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1903000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>942000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>944000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>924000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>926000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>985000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>937000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>895000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>863000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>839000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>811000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12827000</v>
+      </c>
+      <c r="E49" s="3">
         <v>13781000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>13864000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14247000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14256000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14453000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>14522000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>14672000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14748000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13509000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>13643000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>13783000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>13886000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14030000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14316000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>14401000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>14563000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>14665000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>14687000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>14781000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>15072000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1734000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1737000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1702000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1525000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1563000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1647000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1608000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1420000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1463000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1389000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1327000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1213000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1424000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1370000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1264000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>917000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>789000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>981000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>887000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>614000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>978000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>37282000</v>
+      </c>
+      <c r="E54" s="3">
         <v>38267000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>38632000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>38531000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>38037000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>38110000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>37727000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>35426000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35703000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35166000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>35893000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>32385000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>33041000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>34213000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>34212000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>32458000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>32272000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>32774000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>32232000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>30253000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>31801000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,114 +3664,118 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>911000</v>
+      </c>
+      <c r="E57" s="3">
         <v>961000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>913000</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
         <v>832000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>854000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>856000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>882000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>793000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>688000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>691000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>679000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>670000</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>135000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>117000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>121000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>644000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1110000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>471000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>971000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>973000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>525000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>697000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>319000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>487000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>190000</v>
       </c>
       <c r="M58" s="3">
         <v>190000</v>
       </c>
       <c r="N58" s="3">
-        <v>186000</v>
+        <v>190000</v>
       </c>
       <c r="O58" s="3">
         <v>186000</v>
       </c>
       <c r="P58" s="3">
-        <v>85000</v>
+        <v>186000</v>
       </c>
       <c r="Q58" s="3">
         <v>85000</v>
@@ -3656,276 +3790,291 @@
         <v>85000</v>
       </c>
       <c r="U58" s="3">
+        <v>85000</v>
+      </c>
+      <c r="V58" s="3">
         <v>120000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>508000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>519000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17061000</v>
+      </c>
+      <c r="E59" s="3">
         <v>17103000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17636000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18361000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>18247000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17662000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17073000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14895000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15367000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16221000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16776000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14424000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14690000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>16297000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>15049000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14670000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14471000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14944000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14330000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>12745000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>13577000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18616000</v>
+      </c>
+      <c r="E60" s="3">
         <v>19174000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19020000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19332000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>19220000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>19019000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18624000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>16070000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16736000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17204000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17654000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15301000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15555000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16382000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15804000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14755000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>14556000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>15029000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>14585000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>13370000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>14217000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4010000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4012000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4632000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4664000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4641000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5068000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5177000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5323000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5404000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4308000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4543000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4418000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4498000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4589000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4507000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4450000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4493000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4097000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3975000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3357000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3267000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3223000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3366000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3406000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3603000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3556000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3567000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3537000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3664000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3532000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3422000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3454000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2669000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2798000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2868000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3071000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2976000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3142000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3204000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3215000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3292000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3363000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25889000</v>
+      </c>
+      <c r="E66" s="3">
         <v>26597000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>27106000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>27711000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>27522000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>27775000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>27464000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>25177000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25816000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>25076000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>25801000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22533000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22992000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>23985000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>23540000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>22332000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>22357000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>22511000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>21954000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>20188000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>21034000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2969000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3166000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3075000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2434000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2047000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2015000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2009000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1792000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1336000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1442000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1439000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1201000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1102000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1270000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1557000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1104000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1130000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1402000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1561000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1452000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1455000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11393000</v>
+      </c>
+      <c r="E76" s="3">
         <v>11670000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11526000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10820000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10515000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10335000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10263000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10249000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9887000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10090000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10092000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9852000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10049000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10228000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10672000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10126000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9915000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10263000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10278000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10065000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10767000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>184000</v>
+        <v>903000</v>
       </c>
       <c r="E81" s="3">
+        <v>917000</v>
+      </c>
+      <c r="F81" s="3">
         <v>733000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>476000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>121000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>94000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>305000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>544000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>75000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>138000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>287000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>378000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>44000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>58000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>215000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>246000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-54000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>34000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>345000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>142000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,40 +5217,41 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>170000</v>
+        <v>154000</v>
       </c>
       <c r="E83" s="3">
+        <v>344000</v>
+      </c>
+      <c r="F83" s="3">
         <v>174000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>184000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>181000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>186000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>219000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>190000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>176000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>182000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>181000</v>
       </c>
       <c r="N83" s="3">
         <v>181000</v>
@@ -5061,31 +5260,34 @@
         <v>181000</v>
       </c>
       <c r="P83" s="3">
+        <v>181000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>193000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>192000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>223000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>198000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>209000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>203000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>194000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>494000</v>
+        <v>1511000</v>
       </c>
       <c r="E89" s="3">
+        <v>366000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-128000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>568000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>521000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>662000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>23000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>461000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>317000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>350000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-47000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>572000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>321000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>377000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>18000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>347000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>196000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>224000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>95000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>299000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-42000</v>
+        <v>-30000</v>
       </c>
       <c r="E91" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-37000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-40000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-48000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-69000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-66000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-71000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-55000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-63000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-57000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-59000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-68000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-76000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-65000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-102000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-79000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-57000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-77000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>127000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-162000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-55000</v>
+        <v>-13000</v>
       </c>
       <c r="E94" s="3">
+        <v>590000</v>
+      </c>
+      <c r="F94" s="3">
         <v>645000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-52000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>141000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-87000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-162000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-83000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1383000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-73000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-75000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-101000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-87000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-74000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-79000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-73000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-107000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-73000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-82000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-88000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-25000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,28 +6017,29 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-177000</v>
+        <v>-6000</v>
       </c>
       <c r="E96" s="3">
+        <v>-269000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-92000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-87000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-88000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-87000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-84000</v>
       </c>
       <c r="J96" s="3">
         <v>-84000</v>
@@ -5817,40 +6051,43 @@
         <v>-84000</v>
       </c>
       <c r="M96" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-77000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-78000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-79000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-81000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-68000</v>
       </c>
       <c r="R96" s="3">
         <v>-68000</v>
       </c>
       <c r="S96" s="3">
-        <v>-72000</v>
+        <v>-68000</v>
       </c>
       <c r="T96" s="3">
         <v>-72000</v>
       </c>
       <c r="U96" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-66000</v>
       </c>
       <c r="W96" s="3">
         <v>-66000</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>-66000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-188000</v>
+        <v>-1484000</v>
       </c>
       <c r="E100" s="3">
+        <v>-821000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-633000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-119000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-401000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>186000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-377000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1148000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-456000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>82000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-361000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-207000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-311000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-24000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-233000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-50000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-210000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>14000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-116000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-331000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4000</v>
+        <v>-14000</v>
       </c>
       <c r="E101" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-14000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>26000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>17000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>14000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-36000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>20000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-20000</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-1000</v>
       </c>
       <c r="M101" s="3">
         <v>-1000</v>
       </c>
       <c r="N101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O101" s="3">
         <v>-8000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-7000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>9000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>77000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>21000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>10000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-5000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>255000</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>125000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-130000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>442000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>560000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>188000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>21000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>62000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-180000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-41000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>102000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>20000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-43000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-76000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>118000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>60000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-49000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>31000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>103000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-182000</v>
       </c>
     </row>
